--- a/Diseño ETL.xlsx
+++ b/Diseño ETL.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneira3/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF361DA-A5F1-3D4F-869B-92287AD8F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A355C2D9-3DA1-EE41-9319-8B3724EECEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseño ETL" sheetId="8" r:id="rId1"/>
-    <sheet name="EjemploDiseñoETL" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
-  <si>
-    <t>Inspirada en el trabajo realizado por el Grupo Krusty_Brand202214</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Fuente de datos:</t>
   </si>
@@ -153,6 +149,144 @@
   </si>
   <si>
     <t xml:space="preserve">  * ClasificacionEnfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SISAIRE – IDEAM (Sistema de Información de Calidad del Aire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Secretaría Distrital de Salud – Registros RIPS 2020-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DANE – Proyecciones de población por localidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * SO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * TotalHabitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Enfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * NombreHospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data Mart – Tabla F_HechosSaludAmbiental (Azure SQL Database o Power BI Dataset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Paciente_FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * UmbralConcentracionRiesgo_FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * NumeroHabitantesNiños0a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * NumeroHabitantesNiñas0a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * TotalHabitantes0a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * ConcentracionPM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * ConcentracionSO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * ConcentracionO3</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Secretaría Distrital de Salud – Registros RIPS (datos anonimizados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ministerio de Salud – Base Maestra de Afiliados (BDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * IdentificadorPaciente (anonimizado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * TipoAfiliacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * EntidadSalud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * LocalidadResidencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * NombreCompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * DocumentoIdentidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Teléfono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data Mart – Tabla D_Paciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Paciente_PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Afiliación</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IDEAM – SISAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RIPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año </t>
+  </si>
+  <si>
+    <t>Semesetre</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data Mart – Tabla D_Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  * Semestre</t>
   </si>
   <si>
     <r>
@@ -167,146 +301,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Análisis en el contexto de Salud Ambiental – Bogotá (2025-2)</t>
+      <t>Salud Ambiental Bogotá 2022-2024</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  SISAIRE – IDEAM (Sistema de Información de Calidad del Aire)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Secretaría Distrital de Salud – Registros RIPS 2020-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DANE – Proyecciones de población por localidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * SO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * TotalHabitantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Enfermedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Sexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Edad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * NombreHospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Data Mart – Tabla F_HechosSaludAmbiental (Azure SQL Database o Power BI Dataset)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Paciente_FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * UmbralConcentracionRiesgo_FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * NumeroHabitantesNiños0a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * NumeroHabitantesNiñas0a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * TotalHabitantes0a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * ConcentracionPM10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * ConcentracionSO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * ConcentracionO3</t>
-  </si>
-  <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Secretaría Distrital de Salud – Registros RIPS (datos anonimizados)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ministerio de Salud – Base Maestra de Afiliados (BDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * IdentificadorPaciente (anonimizado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * TipoAfiliacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * EntidadSalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * LocalidadResidencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * NombreCompleto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * DocumentoIdentidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Teléfono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Data Mart – Tabla D_Paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Paciente_PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Afiliación</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IDEAM – SISAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RIPS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Año </t>
-  </si>
-  <si>
-    <t>Semesetre</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Día</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Data Mart – Tabla D_Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * Semestre</t>
   </si>
 </sst>
 </file>
@@ -2432,55 +2428,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>399429</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>151643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="190500"/>
-          <a:ext cx="4971429" cy="6057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2775,12 +2722,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
@@ -2794,13 +2742,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2817,80 +2763,80 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="S4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="S6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="5"/>
       <c r="S7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U7" s="5"/>
     </row>
@@ -2902,11 +2848,11 @@
       <c r="J8" s="4"/>
       <c r="L8" s="5"/>
       <c r="N8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="5"/>
       <c r="S8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U8" s="5"/>
     </row>
@@ -2920,35 +2866,35 @@
       <c r="N9" s="4"/>
       <c r="P9" s="5"/>
       <c r="S9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5"/>
       <c r="J10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5"/>
       <c r="N10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="5"/>
       <c r="S10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
@@ -2956,83 +2902,83 @@
       <c r="J11" s="4"/>
       <c r="L11" s="5"/>
       <c r="N11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P11" s="5"/>
       <c r="S11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="6"/>
       <c r="H12" s="5"/>
       <c r="J12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="D13" s="5"/>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5"/>
       <c r="J13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="5"/>
       <c r="N13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" s="4"/>
       <c r="U14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P15" s="5"/>
       <c r="S15" s="4"/>
@@ -3040,17 +2986,17 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5"/>
       <c r="J16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P16" s="5"/>
       <c r="S16" s="4"/>
@@ -3058,13 +3004,13 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17" s="4"/>
       <c r="P17" s="5"/>
@@ -3076,7 +3022,7 @@
       <c r="F18" s="4"/>
       <c r="J18" s="4"/>
       <c r="N18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" s="5"/>
       <c r="S18" s="4"/>
@@ -3085,13 +3031,13 @@
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P19" s="5"/>
       <c r="S19" s="4"/>
@@ -3102,7 +3048,7 @@
       <c r="F20" s="4"/>
       <c r="J20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P20" s="5"/>
       <c r="S20" s="4"/>
@@ -3113,7 +3059,7 @@
       <c r="F21" s="4"/>
       <c r="J21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" s="5"/>
       <c r="S21" s="4"/>
@@ -3121,25 +3067,25 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6"/>
       <c r="H22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" s="6"/>
       <c r="L22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P22" s="5"/>
       <c r="S22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22" s="5"/>
     </row>
@@ -3153,7 +3099,7 @@
       <c r="N23" s="2"/>
       <c r="P23" s="5"/>
       <c r="S23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U23" s="5"/>
     </row>
@@ -3167,7 +3113,7 @@
       <c r="N24" s="2"/>
       <c r="P24" s="5"/>
       <c r="S24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U24" s="5"/>
     </row>
@@ -3181,7 +3127,7 @@
       <c r="N25" s="2"/>
       <c r="P25" s="5"/>
       <c r="S25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U25" s="5"/>
     </row>
@@ -3199,15 +3145,15 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5"/>
       <c r="F27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="5"/>
       <c r="J27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" s="5"/>
       <c r="N27" s="4"/>
@@ -3215,59 +3161,59 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="5"/>
       <c r="J28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="5"/>
       <c r="N28" s="4"/>
       <c r="P28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="5"/>
       <c r="J29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="5"/>
       <c r="N29" s="4"/>
       <c r="P29" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="5"/>
       <c r="J30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="5"/>
       <c r="N30" s="4"/>
@@ -3277,44 +3223,44 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="5"/>
       <c r="H31" s="5"/>
       <c r="L31" s="5"/>
       <c r="P31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5"/>
       <c r="H32" s="5"/>
       <c r="L32" s="5"/>
       <c r="P32" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" s="5"/>
       <c r="H33" s="5"/>
       <c r="L33" s="5"/>
       <c r="P33" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
@@ -3323,25 +3269,25 @@
       <c r="H34" s="5"/>
       <c r="L34" s="5"/>
       <c r="P34" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="5"/>
       <c r="H35" s="5"/>
       <c r="L35" s="5"/>
       <c r="P35" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U35" s="8"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5"/>
       <c r="H36" s="5"/>
@@ -3350,7 +3296,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5"/>
       <c r="H37" s="5"/>
@@ -3359,7 +3305,7 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5"/>
       <c r="H38" s="5"/>
@@ -3367,7 +3313,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5"/>
       <c r="H39" s="5"/>
@@ -3400,7 +3346,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H45" s="5"/>
       <c r="L45" s="5"/>
@@ -3408,7 +3354,7 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D46" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H46" s="5"/>
       <c r="L46" s="5"/>
@@ -3416,7 +3362,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H47" s="5"/>
       <c r="P47" s="9"/>
@@ -3425,33 +3371,33 @@
       <c r="D48" s="7"/>
       <c r="H48" s="5"/>
       <c r="L48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="5"/>
       <c r="L49" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D50" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="5"/>
       <c r="L50" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P50" s="9"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="5"/>
       <c r="L51" s="7"/>
@@ -3459,102 +3405,102 @@
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D52" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="5"/>
       <c r="L52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D53" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H53" s="5"/>
       <c r="L53" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H54" s="5"/>
       <c r="L54" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D55" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" s="5"/>
       <c r="L55" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D56" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H56" s="5"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H57" s="5"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D61" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D62" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D63" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D64" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
@@ -3562,22 +3508,22 @@
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
@@ -3599,19 +3545,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>